--- a/PowerBI/07_power_bi_ghibli/data/studio_ghibli_posters.xlsx
+++ b/PowerBI/07_power_bi_ghibli/data/studio_ghibli_posters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Documents\GitHub\projects\draft\ghibli\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Documents\GitHub\projects\PowerBI\07_power_bi_ghibli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492043E-DBB6-4F41-9F00-749AFA79B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6287D-5332-4D6A-80D2-C0CAAF498288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="636" windowWidth="17280" windowHeight="11040" xr2:uid="{9D6D9679-C835-4FBA-A796-47584422BD61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D6D9679-C835-4FBA-A796-47584422BD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ghibli posters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -120,13 +120,88 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/22_when_marnie_was_there.webp</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/19_from_up_on_poppy_hill.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/23_the_red_turtle.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/01_nausicaa_of_the_valley_of_the_wind.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/02_castle_in_the_sky.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/03_grave_of_the_fireflies.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/04_my_neighbor_totoro.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/05__kiki's_delivery_service.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/06_only_yesterday.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/07_porco%20rosso.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/08_ocean_waves.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/09_pom_poko.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/10_whisper_of_the_heart.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/11_princess_mononoke.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/12_my_neighbors_the_yamadas.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/13_spirited%20away.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/14_thecat_returns.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/15_howl's_moving_castle.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/16__tales_from_earthsea.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/17_ponyo.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/18_arrietty.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/20_the_wind_rises.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/21_the_tale_of_the_princess_kaguya.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/24_earwig_and_the_witch.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/VictoriaStetskevych/projects/refs/heads/main/PowerBI/07_power_bi_ghibli/images/25__the_boy_and_the_heron.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +222,14 @@
       <color theme="1"/>
       <name val="ITC Avant Garde Gothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,10 +264,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,8 +286,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -620,14 +708,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="136.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -648,7 +736,9 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -657,6 +747,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -665,7 +758,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -674,6 +769,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -682,7 +780,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -691,6 +791,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -699,7 +802,9 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -708,6 +813,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -716,7 +824,9 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,6 +836,9 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -734,7 +847,9 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -743,6 +858,9 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -751,7 +869,9 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -760,6 +880,9 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -768,7 +891,9 @@
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -777,6 +902,9 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -785,7 +913,9 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -794,6 +924,9 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -802,7 +935,9 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -811,6 +946,9 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -819,7 +957,9 @@
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -828,6 +968,9 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
@@ -836,7 +979,9 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -845,6 +990,9 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -853,12 +1001,41 @@
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{6597501F-263F-440B-A2A1-8883AF013AB6}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{F53DAA5C-2FBE-4D9B-9947-F19AD0114902}"/>
+    <hyperlink ref="C24" r:id="rId3" display="https://github.com/VictoriaStetskevych/projects/blob/main/PowerBI/07_power_bi_ghibli/images/23_the_red_turtle.jpg" xr:uid="{B77D6C76-7C1E-40C7-A4D6-0404C1BC47D8}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{5360B9E8-EAC3-464A-8A48-5A7CABB499C0}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{8F32FEAA-669A-4FC3-AEC5-3F8EC60A457B}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{B99C3686-0C64-4CB1-A940-A062BDDCA38E}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{797E7C5D-1C6F-4E61-AFC0-7EA1A9AE121E}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{BB558A1D-55BF-4C37-A0C2-CE28BCC4D62F}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{683D195B-4E91-4F30-B091-843706C9D9D0}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{5AB5E11E-B504-4B71-BF6E-E3B74305805C}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{D047466C-F2B6-4A7D-977D-61B4C5FC2671}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{B89FC813-6B1E-4F12-BA6C-F2E2AF781089}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{3CB6A205-059C-4A33-91B6-9F1889F60C14}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{0704D647-7EEF-4BE1-9BC6-3A6CDAECDBB9}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{9EFB996D-FBDB-4516-B263-061499959742}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{B48C04D3-FFE1-4E5D-A46C-D2D5DF0D8D91}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{F7A057A1-B037-40ED-8181-19AE67F5B475}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{1913B248-446D-4DEB-83B3-C7AA4043DCD4}"/>
+    <hyperlink ref="C8" r:id="rId19" xr:uid="{B51D2794-25DF-4899-87C4-E69D3361D037}"/>
+    <hyperlink ref="C7" r:id="rId20" xr:uid="{17F7C94B-C920-4C58-B874-4B9EFA47A1B1}"/>
+    <hyperlink ref="C6" r:id="rId21" xr:uid="{4F19AA9B-6421-40EB-AC71-6E10864CE107}"/>
+    <hyperlink ref="C5" r:id="rId22" xr:uid="{C4E60FFE-CFB0-4B56-835E-9FD0A093DEC9}"/>
+    <hyperlink ref="C4" r:id="rId23" xr:uid="{636A71F6-A85E-4B1E-BEAD-1830B117E07B}"/>
+    <hyperlink ref="C3" r:id="rId24" xr:uid="{B51C7748-72F3-4E7A-A19F-084FD39B901C}"/>
+    <hyperlink ref="C2" r:id="rId25" xr:uid="{70DFD2B5-2200-4B97-AE9D-19DA95551EAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>